--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.860268666666667</v>
+        <v>10.727928</v>
       </c>
       <c r="H2">
-        <v>14.580806</v>
+        <v>32.183784</v>
       </c>
       <c r="I2">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="J2">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N2">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O2">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P2">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q2">
-        <v>37.15671345442778</v>
+        <v>129.234049019568</v>
       </c>
       <c r="R2">
-        <v>334.41042108985</v>
+        <v>1163.106441176112</v>
       </c>
       <c r="S2">
-        <v>0.001487585626991801</v>
+        <v>0.005412228414435053</v>
       </c>
       <c r="T2">
-        <v>0.001487585626991801</v>
+        <v>0.005412228414435053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.860268666666667</v>
+        <v>10.727928</v>
       </c>
       <c r="H3">
-        <v>14.580806</v>
+        <v>32.183784</v>
       </c>
       <c r="I3">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="J3">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>112.478866</v>
       </c>
       <c r="O3">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P3">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q3">
-        <v>182.2258360273329</v>
+        <v>402.221725323216</v>
       </c>
       <c r="R3">
-        <v>1640.032524245996</v>
+        <v>3619.995527908944</v>
       </c>
       <c r="S3">
-        <v>0.007295492774765912</v>
+        <v>0.01684475466962876</v>
       </c>
       <c r="T3">
-        <v>0.007295492774765911</v>
+        <v>0.01684475466962876</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.860268666666667</v>
+        <v>10.727928</v>
       </c>
       <c r="H4">
-        <v>14.580806</v>
+        <v>32.183784</v>
       </c>
       <c r="I4">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="J4">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N4">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O4">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P4">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q4">
-        <v>284.8666713829583</v>
+        <v>571.128438801504</v>
       </c>
       <c r="R4">
-        <v>2563.800042446624</v>
+        <v>5140.155949213537</v>
       </c>
       <c r="S4">
-        <v>0.01140476448429772</v>
+        <v>0.02391844555071856</v>
       </c>
       <c r="T4">
-        <v>0.01140476448429772</v>
+        <v>0.02391844555071856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.860268666666667</v>
+        <v>10.727928</v>
       </c>
       <c r="H5">
-        <v>14.580806</v>
+        <v>32.183784</v>
       </c>
       <c r="I5">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="J5">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N5">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O5">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P5">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q5">
-        <v>99.46009571021801</v>
+        <v>163.956554269056</v>
       </c>
       <c r="R5">
-        <v>895.1408613919621</v>
+        <v>1475.608988421504</v>
       </c>
       <c r="S5">
-        <v>0.003981929376483058</v>
+        <v>0.006866381797056335</v>
       </c>
       <c r="T5">
-        <v>0.003981929376483057</v>
+        <v>0.006866381797056335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.860268666666667</v>
+        <v>10.727928</v>
       </c>
       <c r="H6">
-        <v>14.580806</v>
+        <v>32.183784</v>
       </c>
       <c r="I6">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="J6">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N6">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O6">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P6">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q6">
-        <v>57.17945049431511</v>
+        <v>107.58711789396</v>
       </c>
       <c r="R6">
-        <v>514.615054448836</v>
+        <v>968.2840610456401</v>
       </c>
       <c r="S6">
-        <v>0.002289204851741168</v>
+        <v>0.004505670610109084</v>
       </c>
       <c r="T6">
-        <v>0.002289204851741168</v>
+        <v>0.004505670610109084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.860268666666667</v>
+        <v>10.727928</v>
       </c>
       <c r="H7">
-        <v>14.580806</v>
+        <v>32.183784</v>
       </c>
       <c r="I7">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="J7">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N7">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O7">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P7">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q7">
-        <v>291.4825922188312</v>
+        <v>642.227438327808</v>
       </c>
       <c r="R7">
-        <v>2623.34332996948</v>
+        <v>5780.046944950273</v>
       </c>
       <c r="S7">
-        <v>0.01166963583135136</v>
+        <v>0.02689602017902647</v>
       </c>
       <c r="T7">
-        <v>0.01166963583135136</v>
+        <v>0.02689602017902647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>42.730565</v>
       </c>
       <c r="I8">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="J8">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N8">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O8">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P8">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q8">
-        <v>108.8916044456528</v>
+        <v>171.58466921863</v>
       </c>
       <c r="R8">
-        <v>980.0244400108749</v>
+        <v>1544.26202296767</v>
       </c>
       <c r="S8">
-        <v>0.004359524043268864</v>
+        <v>0.007185841728799323</v>
       </c>
       <c r="T8">
-        <v>0.004359524043268863</v>
+        <v>0.007185841728799321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>42.730565</v>
       </c>
       <c r="I9">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="J9">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>112.478866</v>
       </c>
       <c r="O9">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P9">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q9">
         <v>534.0317216376989</v>
@@ -1013,10 +1013,10 @@
         <v>4806.28549473929</v>
       </c>
       <c r="S9">
-        <v>0.02138019861310583</v>
+        <v>0.02236486189192748</v>
       </c>
       <c r="T9">
-        <v>0.02138019861310582</v>
+        <v>0.02236486189192748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>42.730565</v>
       </c>
       <c r="I10">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="J10">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N10">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O10">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P10">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q10">
-        <v>834.8313404528622</v>
+        <v>758.2899785045845</v>
       </c>
       <c r="R10">
-        <v>7513.482064075759</v>
+        <v>6824.60980654126</v>
       </c>
       <c r="S10">
-        <v>0.03342284576764655</v>
+        <v>0.03175663533858978</v>
       </c>
       <c r="T10">
-        <v>0.03342284576764654</v>
+        <v>0.03175663533858977</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>42.730565</v>
       </c>
       <c r="I11">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="J11">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N11">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O11">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P11">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q11">
-        <v>291.478131226195</v>
+        <v>217.68590664696</v>
       </c>
       <c r="R11">
-        <v>2623.303181035755</v>
+        <v>1959.17315982264</v>
       </c>
       <c r="S11">
-        <v>0.01166945723351773</v>
+        <v>0.009116528177480078</v>
       </c>
       <c r="T11">
-        <v>0.01166945723351773</v>
+        <v>0.009116528177480076</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>42.730565</v>
       </c>
       <c r="I12">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="J12">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N12">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O12">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P12">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q12">
-        <v>167.5703130548211</v>
+        <v>142.8439345208917</v>
       </c>
       <c r="R12">
-        <v>1508.13281749339</v>
+        <v>1285.595410688025</v>
       </c>
       <c r="S12">
-        <v>0.006708752363596453</v>
+        <v>0.005982200566404991</v>
       </c>
       <c r="T12">
-        <v>0.006708752363596452</v>
+        <v>0.005982200566404989</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>42.730565</v>
       </c>
       <c r="I13">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="J13">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N13">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O13">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P13">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q13">
-        <v>854.2199829814111</v>
+        <v>852.6884625577245</v>
       </c>
       <c r="R13">
-        <v>7687.979846832701</v>
+        <v>7674.19616301952</v>
       </c>
       <c r="S13">
-        <v>0.0341990787352831</v>
+        <v>0.03570997551130726</v>
       </c>
       <c r="T13">
-        <v>0.03419907873528309</v>
+        <v>0.03570997551130725</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.98160133333333</v>
+        <v>25.59360933333333</v>
       </c>
       <c r="H14">
-        <v>59.944804</v>
+        <v>76.780828</v>
       </c>
       <c r="I14">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856114</v>
       </c>
       <c r="J14">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856113</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N14">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O14">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P14">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q14">
-        <v>152.7591756799889</v>
+        <v>308.313568395656</v>
       </c>
       <c r="R14">
-        <v>1374.8325811199</v>
+        <v>2774.822115560904</v>
       </c>
       <c r="S14">
-        <v>0.006115781860292266</v>
+        <v>0.01291194904196009</v>
       </c>
       <c r="T14">
-        <v>0.006115781860292265</v>
+        <v>0.01291194904196009</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.98160133333333</v>
+        <v>25.59360933333333</v>
       </c>
       <c r="H15">
-        <v>59.944804</v>
+        <v>76.780828</v>
       </c>
       <c r="I15">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856114</v>
       </c>
       <c r="J15">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856113</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>112.478866</v>
       </c>
       <c r="O15">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P15">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q15">
-        <v>749.1692862791405</v>
+        <v>959.5800515534498</v>
       </c>
       <c r="R15">
-        <v>6742.523576512263</v>
+        <v>8636.220463981048</v>
       </c>
       <c r="S15">
-        <v>0.02999332714986803</v>
+        <v>0.04018651787468381</v>
       </c>
       <c r="T15">
-        <v>0.02999332714986803</v>
+        <v>0.04018651787468381</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.98160133333333</v>
+        <v>25.59360933333333</v>
       </c>
       <c r="H16">
-        <v>59.944804</v>
+        <v>76.780828</v>
       </c>
       <c r="I16">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856114</v>
       </c>
       <c r="J16">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856113</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N16">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O16">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P16">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q16">
-        <v>1171.147656870535</v>
+        <v>1362.540664128457</v>
       </c>
       <c r="R16">
-        <v>10540.32891183481</v>
+        <v>12262.86597715611</v>
       </c>
       <c r="S16">
-        <v>0.04688741978169027</v>
+        <v>0.05706221660750294</v>
       </c>
       <c r="T16">
-        <v>0.04688741978169026</v>
+        <v>0.05706221660750292</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.98160133333333</v>
+        <v>25.59360933333333</v>
       </c>
       <c r="H17">
-        <v>59.944804</v>
+        <v>76.780828</v>
       </c>
       <c r="I17">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856114</v>
       </c>
       <c r="J17">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856113</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N17">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O17">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P17">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q17">
-        <v>408.901671359612</v>
+        <v>391.151021669952</v>
       </c>
       <c r="R17">
-        <v>3680.115042236508</v>
+        <v>3520.359195029568</v>
       </c>
       <c r="S17">
-        <v>0.01637056113462583</v>
+        <v>0.0163811216152244</v>
       </c>
       <c r="T17">
-        <v>0.01637056113462583</v>
+        <v>0.0163811216152244</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.98160133333333</v>
+        <v>25.59360933333333</v>
       </c>
       <c r="H18">
-        <v>59.944804</v>
+        <v>76.780828</v>
       </c>
       <c r="I18">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856114</v>
       </c>
       <c r="J18">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856113</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N18">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O18">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P18">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q18">
-        <v>235.0769191160915</v>
+        <v>256.6705019531533</v>
       </c>
       <c r="R18">
-        <v>2115.692272044824</v>
+        <v>2310.03451757838</v>
       </c>
       <c r="S18">
-        <v>0.009411409503251972</v>
+        <v>0.01074917480615209</v>
       </c>
       <c r="T18">
-        <v>0.00941140950325197</v>
+        <v>0.01074917480615208</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.98160133333333</v>
+        <v>25.59360933333333</v>
       </c>
       <c r="H19">
-        <v>59.944804</v>
+        <v>76.780828</v>
       </c>
       <c r="I19">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856114</v>
       </c>
       <c r="J19">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856113</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N19">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O19">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P19">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q19">
-        <v>1198.347118806036</v>
+        <v>1532.161490989625</v>
       </c>
       <c r="R19">
-        <v>10785.12406925432</v>
+        <v>13789.45341890663</v>
       </c>
       <c r="S19">
-        <v>0.0479763623946258</v>
+        <v>0.06416581404008805</v>
       </c>
       <c r="T19">
-        <v>0.04797636239462579</v>
+        <v>0.06416581404008803</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.987349666666667</v>
+        <v>3.404745666666667</v>
       </c>
       <c r="H20">
-        <v>17.962049</v>
+        <v>10.214237</v>
       </c>
       <c r="I20">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="J20">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N20">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O20">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P20">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q20">
-        <v>45.77323830708611</v>
+        <v>41.01528910197401</v>
       </c>
       <c r="R20">
-        <v>411.959144763775</v>
+        <v>369.1376019177661</v>
       </c>
       <c r="S20">
-        <v>0.00183255204984707</v>
+        <v>0.001717690614726157</v>
       </c>
       <c r="T20">
-        <v>0.00183255204984707</v>
+        <v>0.001717690614726157</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.987349666666667</v>
+        <v>3.404745666666667</v>
       </c>
       <c r="H21">
-        <v>17.962049</v>
+        <v>10.214237</v>
       </c>
       <c r="I21">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="J21">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>112.478866</v>
       </c>
       <c r="O21">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P21">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q21">
-        <v>224.4834336173816</v>
+        <v>127.6539772016936</v>
       </c>
       <c r="R21">
-        <v>2020.350902556434</v>
+        <v>1148.885794815242</v>
       </c>
       <c r="S21">
-        <v>0.008987294577507668</v>
+        <v>0.00534605615058953</v>
       </c>
       <c r="T21">
-        <v>0.008987294577507667</v>
+        <v>0.005346056150589529</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.987349666666667</v>
+        <v>3.404745666666667</v>
       </c>
       <c r="H22">
-        <v>17.962049</v>
+        <v>10.214237</v>
       </c>
       <c r="I22">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="J22">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N22">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O22">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P22">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q22">
-        <v>350.9263555010329</v>
+        <v>181.2602654603498</v>
       </c>
       <c r="R22">
-        <v>3158.337199509296</v>
+        <v>1631.342389143148</v>
       </c>
       <c r="S22">
-        <v>0.01404949345738606</v>
+        <v>0.007591048694790983</v>
       </c>
       <c r="T22">
-        <v>0.01404949345738606</v>
+        <v>0.007591048694790982</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.987349666666667</v>
+        <v>3.404745666666667</v>
       </c>
       <c r="H23">
-        <v>17.962049</v>
+        <v>10.214237</v>
       </c>
       <c r="I23">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="J23">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N23">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O23">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P23">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q23">
-        <v>122.524578729847</v>
+        <v>52.03524554500801</v>
       </c>
       <c r="R23">
-        <v>1102.721208568623</v>
+        <v>468.317209905072</v>
       </c>
       <c r="S23">
-        <v>0.004905326260765566</v>
+        <v>0.002179198412704339</v>
       </c>
       <c r="T23">
-        <v>0.004905326260765565</v>
+        <v>0.002179198412704339</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.987349666666667</v>
+        <v>3.404745666666667</v>
       </c>
       <c r="H24">
-        <v>17.962049</v>
+        <v>10.214237</v>
       </c>
       <c r="I24">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="J24">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N24">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O24">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P24">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q24">
-        <v>70.43918501981044</v>
+        <v>34.14515584357167</v>
       </c>
       <c r="R24">
-        <v>633.952665178294</v>
+        <v>307.306402592145</v>
       </c>
       <c r="S24">
-        <v>0.002820064248712492</v>
+        <v>0.001429974407471439</v>
       </c>
       <c r="T24">
-        <v>0.002820064248712492</v>
+        <v>0.001429974407471439</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.987349666666667</v>
+        <v>3.404745666666667</v>
       </c>
       <c r="H25">
-        <v>17.962049</v>
+        <v>10.214237</v>
       </c>
       <c r="I25">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="J25">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N25">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O25">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P25">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q25">
-        <v>359.0764875468245</v>
+        <v>203.8251084143218</v>
       </c>
       <c r="R25">
-        <v>3231.68838792142</v>
+        <v>1834.425975728896</v>
       </c>
       <c r="S25">
-        <v>0.0143757876358062</v>
+        <v>0.008536047981970015</v>
       </c>
       <c r="T25">
-        <v>0.0143757876358062</v>
+        <v>0.008536047981970014</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>58.46038166666667</v>
+        <v>63.59848400000001</v>
       </c>
       <c r="H26">
-        <v>175.381145</v>
+        <v>190.795452</v>
       </c>
       <c r="I26">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408804</v>
       </c>
       <c r="J26">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408803</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N26">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O26">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P26">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q26">
-        <v>446.9291306718195</v>
+        <v>766.1395190969041</v>
       </c>
       <c r="R26">
-        <v>4022.362176046375</v>
+        <v>6895.255671872137</v>
       </c>
       <c r="S26">
-        <v>0.01789300746113521</v>
+        <v>0.03208536841595069</v>
       </c>
       <c r="T26">
-        <v>0.01789300746113521</v>
+        <v>0.03208536841595069</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>58.46038166666667</v>
+        <v>63.59848400000001</v>
       </c>
       <c r="H27">
-        <v>175.381145</v>
+        <v>190.795452</v>
       </c>
       <c r="I27">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408804</v>
       </c>
       <c r="J27">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408803</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>112.478866</v>
       </c>
       <c r="O27">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P27">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q27">
-        <v>2191.852478597953</v>
+        <v>2384.495119879715</v>
       </c>
       <c r="R27">
-        <v>19726.67230738157</v>
+        <v>21460.45607891743</v>
       </c>
       <c r="S27">
-        <v>0.0877517934315615</v>
+        <v>0.09986092937427528</v>
       </c>
       <c r="T27">
-        <v>0.08775179343156149</v>
+        <v>0.09986092937427525</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>58.46038166666667</v>
+        <v>63.59848400000001</v>
       </c>
       <c r="H28">
-        <v>175.381145</v>
+        <v>190.795452</v>
       </c>
       <c r="I28">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408804</v>
       </c>
       <c r="J28">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408803</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N28">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O28">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P28">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q28">
-        <v>3426.439045926676</v>
+        <v>3385.826496697446</v>
       </c>
       <c r="R28">
-        <v>30837.95141334008</v>
+        <v>30472.43847027701</v>
       </c>
       <c r="S28">
-        <v>0.137179018341748</v>
+        <v>0.141795962525312</v>
       </c>
       <c r="T28">
-        <v>0.137179018341748</v>
+        <v>0.141795962525312</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>58.46038166666667</v>
+        <v>63.59848400000001</v>
       </c>
       <c r="H29">
-        <v>175.381145</v>
+        <v>190.795452</v>
       </c>
       <c r="I29">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408804</v>
       </c>
       <c r="J29">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408803</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N29">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O29">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P29">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q29">
-        <v>1196.327930531935</v>
+        <v>971.9852979415682</v>
       </c>
       <c r="R29">
-        <v>10766.95137478742</v>
+        <v>8747.867681474114</v>
       </c>
       <c r="S29">
-        <v>0.04789552328977799</v>
+        <v>0.04070604061268668</v>
       </c>
       <c r="T29">
-        <v>0.04789552328977798</v>
+        <v>0.04070604061268666</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>58.46038166666667</v>
+        <v>63.59848400000001</v>
       </c>
       <c r="H30">
-        <v>175.381145</v>
+        <v>190.795452</v>
       </c>
       <c r="I30">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408804</v>
       </c>
       <c r="J30">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408803</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N30">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O30">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P30">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q30">
-        <v>687.7670204352078</v>
+        <v>637.8097984983801</v>
       </c>
       <c r="R30">
-        <v>6189.903183916869</v>
+        <v>5740.288186485421</v>
       </c>
       <c r="S30">
-        <v>0.02753505999859824</v>
+        <v>0.0267110126211038</v>
       </c>
       <c r="T30">
-        <v>0.02753505999859824</v>
+        <v>0.02671101262110379</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>58.46038166666667</v>
+        <v>63.59848400000001</v>
       </c>
       <c r="H31">
-        <v>175.381145</v>
+        <v>190.795452</v>
       </c>
       <c r="I31">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408804</v>
       </c>
       <c r="J31">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408803</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N31">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O31">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P31">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q31">
-        <v>3506.016798447678</v>
+        <v>3807.323414255958</v>
       </c>
       <c r="R31">
-        <v>31554.1511860291</v>
+        <v>34265.91072830362</v>
       </c>
       <c r="S31">
-        <v>0.1403649492240297</v>
+        <v>0.159447948291552</v>
       </c>
       <c r="T31">
-        <v>0.1403649492240297</v>
+        <v>0.1594479482915519</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>23.937254</v>
+        <v>9.474383</v>
       </c>
       <c r="H32">
-        <v>71.811762</v>
+        <v>28.423149</v>
       </c>
       <c r="I32">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577257</v>
       </c>
       <c r="J32">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577256</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N32">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O32">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P32">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q32">
-        <v>183.0001073528833</v>
+        <v>114.133211655798</v>
       </c>
       <c r="R32">
-        <v>1647.00096617595</v>
+        <v>1027.198904902182</v>
       </c>
       <c r="S32">
-        <v>0.0073264910732751</v>
+        <v>0.004779816277834865</v>
       </c>
       <c r="T32">
-        <v>0.007326491073275098</v>
+        <v>0.004779816277834864</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>23.937254</v>
+        <v>9.474383</v>
       </c>
       <c r="H33">
-        <v>71.811762</v>
+        <v>28.423149</v>
       </c>
       <c r="I33">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577257</v>
       </c>
       <c r="J33">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577256</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>112.478866</v>
       </c>
       <c r="O33">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P33">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q33">
-        <v>897.4783950246547</v>
+        <v>355.2226186298927</v>
       </c>
       <c r="R33">
-        <v>8077.305555221892</v>
+        <v>3197.003567669034</v>
       </c>
       <c r="S33">
-        <v>0.03593094859188232</v>
+        <v>0.01487646610613917</v>
       </c>
       <c r="T33">
-        <v>0.03593094859188231</v>
+        <v>0.01487646610613917</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>23.937254</v>
+        <v>9.474383</v>
       </c>
       <c r="H34">
-        <v>71.811762</v>
+        <v>28.423149</v>
       </c>
       <c r="I34">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577257</v>
       </c>
       <c r="J34">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577256</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N34">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O34">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P34">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q34">
-        <v>1402.993607286538</v>
+        <v>504.3927934077773</v>
       </c>
       <c r="R34">
-        <v>12626.94246557885</v>
+        <v>4539.535140669996</v>
       </c>
       <c r="S34">
-        <v>0.056169476009244</v>
+        <v>0.02112360503464915</v>
       </c>
       <c r="T34">
-        <v>0.05616947600924398</v>
+        <v>0.02112360503464914</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>23.937254</v>
+        <v>9.474383</v>
       </c>
       <c r="H35">
-        <v>71.811762</v>
+        <v>28.423149</v>
       </c>
       <c r="I35">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577257</v>
       </c>
       <c r="J35">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577256</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N35">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O35">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P35">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q35">
-        <v>489.849787565886</v>
+        <v>144.798435495216</v>
       </c>
       <c r="R35">
-        <v>4408.648088092974</v>
+        <v>1303.185919456944</v>
       </c>
       <c r="S35">
-        <v>0.01961135513940791</v>
+        <v>0.006064053652256054</v>
       </c>
       <c r="T35">
-        <v>0.01961135513940791</v>
+        <v>0.006064053652256053</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>23.937254</v>
+        <v>9.474383</v>
       </c>
       <c r="H36">
-        <v>71.811762</v>
+        <v>28.423149</v>
       </c>
       <c r="I36">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577257</v>
       </c>
       <c r="J36">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577256</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N36">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O36">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P36">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q36">
-        <v>281.6138620998413</v>
+        <v>95.01569742018501</v>
       </c>
       <c r="R36">
-        <v>2534.524758898572</v>
+        <v>855.1412767816649</v>
       </c>
       <c r="S36">
-        <v>0.01127453681109824</v>
+        <v>0.003979188621700027</v>
       </c>
       <c r="T36">
-        <v>0.01127453681109824</v>
+        <v>0.003979188621700027</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>23.937254</v>
+        <v>9.474383</v>
       </c>
       <c r="H37">
-        <v>71.811762</v>
+        <v>28.423149</v>
       </c>
       <c r="I37">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577257</v>
       </c>
       <c r="J37">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577256</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N37">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O37">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P37">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q37">
-        <v>1435.577603841773</v>
+        <v>567.1839635600213</v>
       </c>
       <c r="R37">
-        <v>12920.19843457596</v>
+        <v>5104.655672040192</v>
       </c>
       <c r="S37">
-        <v>0.05747399087181297</v>
+        <v>0.02375325378319331</v>
       </c>
       <c r="T37">
-        <v>0.05747399087181296</v>
+        <v>0.0237532537831933</v>
       </c>
     </row>
   </sheetData>
